--- a/data/outputs/management/48.xlsx
+++ b/data/outputs/management/48.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ20"/>
+  <dimension ref="A1:BR20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1337,6 +1344,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4731376</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1719,6 +1732,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1914,6 +1928,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2117,6 +2132,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2340,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4471650</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2527,6 +2548,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2746,6 +2768,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>8539450</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2945,6 +2972,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3152,6 +3180,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3355,6 +3384,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3441,7 +3471,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Bedford, David/0000-0001-5895-7241; </t>
+          <t>Bedford, David/0000-0001-5895-7241;</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3574,6 +3604,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4945437</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3769,6 +3804,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3972,6 +4008,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>3846013</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4171,6 +4212,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4374,6 +4416,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4573,6 +4616,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
